--- a/assets/mapping.xlsx
+++ b/assets/mapping.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CLOSER\Python\TOOLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CLOSER-dev\PyCharm\Bundler\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12270" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12270" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="mapping.txt" sheetId="5" r:id="rId1"/>
@@ -199,11 +199,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="qlist._1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="qlist." connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="qlist." connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="qlist._1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -563,20 +563,20 @@
   </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="e">
-        <f>'DV mapping'!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="B1" t="e">
-        <f>IF(ISBLANK('DV mapping'!#REF!),IF(AND(OR(ISBLANK('DV mapping'!#REF!),ISNA('DV mapping'!#REF!)),OR(ISBLANK('DV mapping'!#REF!),ISNA('DV mapping'!#REF!))),'DV mapping'!#REF!,IF(AND('DV mapping'!#REF!&lt;1,'DV mapping'!#REF!&lt;1),'DV mapping'!#REF!,'DV mapping'!#REF!&amp;"$"&amp;'DV mapping'!#REF!&amp;";"&amp;'DV mapping'!#REF!)),'DV mapping'!#REF!)</f>
-        <v>#REF!</v>
+      <c r="A1">
+        <f>'DV mapping'!A2</f>
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <f>IF(ISBLANK('DV mapping'!C2),IF(AND(OR(ISBLANK('DV mapping'!F2),ISNA('DV mapping'!F2)),OR(ISBLANK('DV mapping'!G2),ISNA('DV mapping'!G2))),IF(ISNA('DV mapping'!E2),0,'DV mapping'!E2),IF(AND('DV mapping'!F2&lt;1,'DV mapping'!G2&lt;1),'DV mapping'!E2,'DV mapping'!E2&amp;"$"&amp;'DV mapping'!F2&amp;";"&amp;'DV mapping'!G2)),'DV mapping'!C2)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -673,7 +673,7 @@
   <dimension ref="A1:F130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -715,8 +715,8 @@
         <v>0</v>
       </c>
       <c r="F2" s="2" t="e">
-        <f>INDEX(qlist!#REF!,MATCH(C2,qlist!#REF!,0))</f>
-        <v>#REF!</v>
+        <f>INDEX(qlist!$B$2:$B$10000,MATCH(C2,qlist!$A$2:$A$10000,0))</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1255,8 +1255,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1303,23 +1303,23 @@
         <v>0</v>
       </c>
       <c r="D2" t="e">
-        <f>INDEX(variables!B$2:B$2,MATCH('DV mapping'!C2,variables!A$2:A$2,0))</f>
+        <f>INDEX(variables!B$2:B$10000,MATCH('DV mapping'!C2,variables!A$2:A$10000,0))</f>
         <v>#N/A</v>
       </c>
       <c r="E2">
-        <f>INDEX(mapping!C$2:C$2,MATCH('DV mapping'!$C2,mapping!$A$2:$A$2,0))</f>
+        <f>INDEX(mapping!C$2:C$10000,MATCH('DV mapping'!$C2,mapping!$A$2:$A$10000,0))</f>
         <v>0</v>
       </c>
       <c r="F2">
-        <f>INDEX(mapping!D$2:D$2,MATCH('DV mapping'!$C2,mapping!$A$2:$A$2,0))</f>
+        <f>INDEX(mapping!D$2:D$10000,MATCH('DV mapping'!$C2,mapping!$A$2:$A$10000,0))</f>
         <v>0</v>
       </c>
       <c r="G2">
-        <f>INDEX(mapping!E$2:E$2,MATCH('DV mapping'!$C2,mapping!$A$2:$A$2,0))</f>
+        <f>INDEX(mapping!E$2:E$10000,MATCH('DV mapping'!$C2,mapping!$A$2:$A$10000,0))</f>
         <v>0</v>
       </c>
       <c r="H2" t="e">
-        <f>INDEX(mapping!F$2:F$2,MATCH('DV mapping'!$E2,mapping!$C$2:$C$2,0))</f>
+        <f>INDEX(mapping!F$2:F$10000,MATCH('DV mapping'!$E2,mapping!$C$2:$C$10000,0))</f>
         <v>#N/A</v>
       </c>
     </row>
